--- a/Titus/Gurobi code/Final/Input/K-Vrijdag.xlsx
+++ b/Titus/Gurobi code/Final/Input/K-Vrijdag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\Werk\IntegrativePractical5\Titus\Gurobi code\Final\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E050BC59-B8A8-49DA-8F73-9E83F32CD7AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2397B85C-C0EF-4575-BA69-3F2E1D6D0F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{D44F40C2-49D4-4593-8F4A-3F0CFE4BE6BA}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{1217A91C-2B8E-40E3-8B0B-9C30B90F70BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Friday" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646024EA-7A10-4A2D-A433-72295290AB0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160701E4-2C1D-4259-9D78-2C32BEF254CA}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -480,7 +480,7 @@
         <v>28</v>
       </c>
       <c r="B1">
-        <v>5718.4973578357913</v>
+        <v>5717</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -500,10 +500,10 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <v>4794.2957646502091</v>
+        <v>4794</v>
       </c>
       <c r="C2">
-        <v>3061.4177774272421</v>
+        <v>3062</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -520,16 +520,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>5256.3965612430002</v>
+        <v>5256</v>
       </c>
       <c r="C3">
-        <v>3812.3315718905278</v>
+        <v>3812</v>
       </c>
       <c r="D3">
-        <v>3639.0437731682309</v>
+        <v>3639</v>
       </c>
       <c r="E3">
-        <v>3234.705576149539</v>
+        <v>3235</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>3465.755974445934</v>
+        <v>3466</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -600,13 +600,13 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>3870.094171464626</v>
+        <v>3870</v>
       </c>
       <c r="C7">
-        <v>3754.5689723164292</v>
+        <v>3755</v>
       </c>
       <c r="D7">
-        <v>3696.80637274233</v>
+        <v>3697</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>4216.6697689092198</v>
+        <v>4217</v>
       </c>
       <c r="C8">
-        <v>4043.3819701869229</v>
+        <v>4043</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>4158.9071693351216</v>
+        <v>4159</v>
       </c>
       <c r="C10">
-        <v>2945.8925782790438</v>
+        <v>2947</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>3754.5689723164292</v>
+        <v>3755</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>3696.80637274233</v>
+        <v>3697</v>
       </c>
       <c r="C13">
-        <v>3061.4177774272421</v>
+        <v>3062</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>4736.53316507611</v>
+        <v>4736</v>
       </c>
       <c r="C14">
-        <v>3639.0437731682309</v>
+        <v>3639</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3523.5185740200332</v>
+        <v>3524</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>3234.705576149539</v>
+        <v>3235</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>3234.705576149539</v>
+        <v>3235</v>
       </c>
       <c r="C17">
-        <v>2945.8925782790438</v>
+        <v>2947</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>3927.856771038726</v>
+        <v>3928</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="B19">
-        <v>4967.5835633725064</v>
+        <v>4967</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -900,13 +900,13 @@
         <v>7</v>
       </c>
       <c r="B22">
-        <v>4447.7201672056153</v>
+        <v>4447</v>
       </c>
       <c r="C22">
-        <v>3696.80637274233</v>
+        <v>3697</v>
       </c>
       <c r="D22">
-        <v>3350.2307752977358</v>
+        <v>3351</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>3870.094171464626</v>
+        <v>3870</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -960,10 +960,10 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>4043.3819701869229</v>
+        <v>4043</v>
       </c>
       <c r="C25">
-        <v>3407.9933748718349</v>
+        <v>3408</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>4043.3819701869229</v>
+        <v>4043</v>
       </c>
       <c r="C27">
-        <v>3812.3315718905278</v>
+        <v>3812</v>
       </c>
       <c r="D27">
-        <v>3927.856771038726</v>
+        <v>3928</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>3985.6193706128238</v>
+        <v>3986</v>
       </c>
       <c r="C28">
-        <v>3292.4681757236381</v>
+        <v>3293</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>4216.6697689092198</v>
+        <v>4217</v>
       </c>
       <c r="C29">
         <v>0</v>
